--- a/documents/example_docs_uni/график.xlsx
+++ b/documents/example_docs_uni/график.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/документы для вкр/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F89E39-DD0C-BB47-8F04-DF4F5901573B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1B981-CDD6-3F4E-AC1D-3B5F78797B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documents/example_docs_uni/график.xlsx
+++ b/documents/example_docs_uni/график.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1B981-CDD6-3F4E-AC1D-3B5F78797B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787F5630-67DC-F344-9933-2A6921F613F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,7 +419,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B2" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
